--- a/diaries/diary-vaishakhi-pilankar.xlsx
+++ b/diaries/diary-vaishakhi-pilankar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guds\Desktop\MSWE\CourseWork\Winter_2020\265P\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162469E9-EC6F-4035-95A6-539FCFB87DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130F73D0-A5E1-45A9-BEDD-124EEC9A2DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -469,6 +469,81 @@
   </si>
   <si>
     <t xml:space="preserve">Feeling great as we completed the assigment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learned more key experts practices. We also learned the importance about test cases in reverse engineering. We also learned had a great session with the speakers of that day. It was really amazing to learn a thing or two from their vast expereince. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we were given the task to check the testcases from jpacman we realised that we can also learn something new about the system from the test cases itself. It depends on how well the test cases are formed and structured and documented. </t>
+  </si>
+  <si>
+    <t>Felt great about the homework. Thinking we could utilise our knowledge about testing gained from the other course this quarter to this weeks homework.</t>
+  </si>
+  <si>
+    <t>11:00 am - 12:00 pm</t>
+  </si>
+  <si>
+    <t>Finding another issue to fix for the next homework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We chose this issue as the issue was clearly explained and the test case for it was given so we could easily work on it. Also, it wasn't a simple issue. It had to be properly debugged and tested in order to be fixed. </t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could not attend the lecture as I was caught a little cold and thought it was would great to not go outside considering the corona virus situation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asked a friend to give a brief explanation about all that was done for the class this day. </t>
+  </si>
+  <si>
+    <t>Hoping this corona virus situation improves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We found a good issue which we could fix and submit a pull request for the same. </t>
+  </si>
+  <si>
+    <t>Happy to have started off with the assignment early.</t>
+  </si>
+  <si>
+    <t>Fix the selected issue and submit a pull request for the same.</t>
+  </si>
+  <si>
+    <t>We debugged and figured out the issue successfully. We then made the code changes for the fix and submitted a pull request for it. We also documented these changes.</t>
+  </si>
+  <si>
+    <t>Because of the previous assignments we were a little familiar with the code base and were able to figure out where the start point for the issue might be. So we traced the issue from that class to the point where the issue was actually occurring. Once we realised that, we discussed what the fix should be and then added it and tested it. The fix seemed to have worked. We then submitted a pull request for it.</t>
+  </si>
+  <si>
+    <t>Happy to have completed one part of the assignment.</t>
+  </si>
+  <si>
+    <t>We went through the test casess and chose three test cases that we all agreed were more interesting than the rest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We realised that the test cases were not written in Junit but in pure java as loops were easier to write in java. It also had test cases to numerically check the space complexity and the run time complexity. </t>
+  </si>
+  <si>
+    <t>Feeling great as we finished the second part of the assignment as well.</t>
+  </si>
+  <si>
+    <t>09:00 pm - 11:00 pm</t>
+  </si>
+  <si>
+    <t>Identify 3 interesting test cases for the assignment. And document the same.</t>
+  </si>
+  <si>
+    <t>Write 3 test cases in addition to the existing one and document it.</t>
+  </si>
+  <si>
+    <t>We created three cases and ensured that they ran successfully. And documented this.</t>
+  </si>
+  <si>
+    <t>We saw how test cases were written in different manners like convetional test cases or added in script sql files. Also some edges cases were missing in the test suite.</t>
+  </si>
+  <si>
+    <t>Feeeeling amazinggg as this was the last thing pending!!</t>
   </si>
 </sst>
 </file>
@@ -985,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1750,59 +1825,141 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+    <row r="38" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>43895</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>43898</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>43902</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>43903</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>43904</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>43905</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
